--- a/biology/Botanique/Cuscuta_arvensis/Cuscuta_arvensis.xlsx
+++ b/biology/Botanique/Cuscuta_arvensis/Cuscuta_arvensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cuscute pentagonale
 Cuscuta pentagona, la Cuscute pentagonale, est une espèce de plantes à fleurs de la famille des Convolvulaceae et du genre Cuscuta. C'est une plante parasite originaire d'Amérique du Nord, qui possède une large gamme de plantes hôtes, notamment de la famille des Asteraceae.
@@ -514,14 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Ses feuilles sont simples, c'est-à-dire lobées ou non, mais non séparées en folioles. Elles sont alternes : il y a une seule feuille par nœud le long de la tige. Le bord du limbe foliaire est entier, sans dents ni lobes[2].
-Appareil reproducteur
-La fleur est symétrique radialement. Elle comporte cinq pétales et cinq sépales. Les pétales ou les sépales sont fusionnés en une coupe ou un tube. Il y a cinq étamines. Le fruit est sec et mesure 1 à 3,6 mm[2].
-Confusions possibles
-La Cuscute pentagonale peut être confondue avec Cuscuta campestris (la Cuscute des champs) et Cuscuta indecora (la Cuscute inélégante)[2].
-C. campestris a les lobes du calice ovés-triangulaires, ne se recouvrant pas ou à peine à la base, les fleurs généralement de 2,1–3,6 mm de long, et les graines de 1,1–1,5 mm de long, tandis que C. pentagona présente des lobes du calice largement ovés à rhombiques, se recouvrant largement à la base, faisant saillie pour former des angles, et des fleurs longues généralement de 1,4–2,1 mm, et des graines de 0,9–1,1 mm[2].
-Les fleurs de C. indecora sont généralement dotées de quatre lobes de corolle, chaque lobe étant dressé à ascendant, les lobes du calice étant aigus à obtus à l'apex, par opposition à C. pentagona, dont les fleurs sont dotées de cinq lobes de corolle, chaque lobe étant étalé à réfléchi, et les lobes du calice étant obtus à l'apex[2].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses feuilles sont simples, c'est-à-dire lobées ou non, mais non séparées en folioles. Elles sont alternes : il y a une seule feuille par nœud le long de la tige. Le bord du limbe foliaire est entier, sans dents ni lobes.
 </t>
         </is>
       </c>
@@ -547,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat et répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Originaire d'Amérique du Nord, la plante a été introduite un peu partout dans le monde[1].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fleur est symétrique radialement. Elle comporte cinq pétales et cinq sépales. Les pétales ou les sépales sont fusionnés en une coupe ou un tube. Il y a cinq étamines. Le fruit est sec et mesure 1 à 3,6 mm.
 </t>
         </is>
       </c>
@@ -578,15 +595,124 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Confusions possibles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Cuscute pentagonale peut être confondue avec Cuscuta campestris (la Cuscute des champs) et Cuscuta indecora (la Cuscute inélégante).
+C. campestris a les lobes du calice ovés-triangulaires, ne se recouvrant pas ou à peine à la base, les fleurs généralement de 2,1–3,6 mm de long, et les graines de 1,1–1,5 mm de long, tandis que C. pentagona présente des lobes du calice largement ovés à rhombiques, se recouvrant largement à la base, faisant saillie pour former des angles, et des fleurs longues généralement de 1,4–2,1 mm, et des graines de 0,9–1,1 mm.
+Les fleurs de C. indecora sont généralement dotées de quatre lobes de corolle, chaque lobe étant dressé à ascendant, les lobes du calice étant aigus à obtus à l'apex, par opposition à C. pentagona, dont les fleurs sont dotées de cinq lobes de corolle, chaque lobe étant étalé à réfléchi, et les lobes du calice étant obtus à l'apex.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cuscuta_arvensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuscuta_arvensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire d'Amérique du Nord, la plante a été introduite un peu partout dans le monde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cuscuta_arvensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuscuta_arvensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce est décrite en premier par le botaniste d'origine allemande George Engelmann en 1842, qui la classe dans le genre Cuscuta sous le nom binominal Cuscuta pentagona.
-Selon l'INPN      (14 mars 2021)[3], le nom Cuscuta pentagona Engelm., 1842 est synonyme de Cuscuta campestris Yunck., 1932.
-Synonymes
-Cuscuta pentagona a pour synonymes[4] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite en premier par le botaniste d'origine allemande George Engelmann en 1842, qui la classe dans le genre Cuscuta sous le nom binominal Cuscuta pentagona.
+Selon l'INPN      (14 mars 2021), le nom Cuscuta pentagona Engelm., 1842 est synonyme de Cuscuta campestris Yunck., 1932.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cuscuta_arvensis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuscuta_arvensis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cuscuta pentagona a pour synonymes :
 Cuscuta arvensis Beyr.
 Cuscuta arvensis Beyr. ex Engelm.
 Cuscuta arvensis Beyr. ex Hook.
@@ -608,8 +734,43 @@
 Grammica campestris (Yunck.) Hadac &amp; Chrtek
 Grammica gymnocarpa (Engelm.) Hadac &amp; Chrtek
 Grammica pentagona (Engelm.) W.A.Weber
-Variétés
-Selon Catalogue of Life                                   (14 mars 2021)[5] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cuscuta_arvensis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuscuta_arvensis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (14 mars 2021) :
 Cuscuta pentagona var. calycina Engelm.
 Cuscuta pentagona var. glabrior (Engelm.) Gandhi, R.D.Thomas &amp; S.L.Hatch
 Cuscuta pentagona var. pubescens (Engelm.) Yunck.</t>
